--- a/biology/Botanique/Kaiser_Wilhelm_(pomme)/Kaiser_Wilhelm_(pomme).xlsx
+++ b/biology/Botanique/Kaiser_Wilhelm_(pomme)/Kaiser_Wilhelm_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kaiser Wilhelm est un cultivar de pommier domestique datant du début du XIXe siècle.
 Nom botanique : Malus domestica Borkh Kaiser Wilhelm.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Usage:: pomme à couteau ou à cuire
 Épicarpe: rouge
@@ -546,7 +560,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar distribué depuis les années 1800.
 </t>
@@ -577,7 +593,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Descendante de Reinette Harberts
 </t>
@@ -608,10 +626,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde.
-Groupe de floraison: C[1].
+Groupe de floraison: C.
 Pollinisateurs: Cox's Orange Pippin, James Grieve, Reinette de Landsberg, Ontario, Transparente Jaune, Reine des Reinettes.
 </t>
         </is>
@@ -641,7 +661,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Maturité: début octobre
 Conservation: jusqu'en janvier</t>
@@ -672,7 +694,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">peu susceptible aux maladies
 </t>
